--- a/outputs_HGR/test-o__Actinomycetales.xlsx
+++ b/outputs_HGR/test-o__Actinomycetales.xlsx
@@ -348,22 +348,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.5655533183979264e-14</v>
+        <v>0.12768415790958682</v>
       </c>
       <c r="C2">
-        <v>8.5655533183979264e-14</v>
+        <v>1.0928231256861397e-13</v>
       </c>
       <c r="D2">
-        <v>0.44797113407332023</v>
+        <v>0.48352522832028338</v>
       </c>
       <c r="E2">
-        <v>0.26976296010142536</v>
+        <v>1.0928231256861424e-13</v>
       </c>
       <c r="F2">
-        <v>0.28226590582499761</v>
+        <v>0.38879061376980206</v>
       </c>
       <c r="G2">
-        <v>8.5655533183979391e-14</v>
+        <v>1.0928231256861424e-13</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -374,22 +374,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.000084548768638e-12</v>
+        <v>0.062163574663812865</v>
       </c>
       <c r="C3">
-        <v>1.000084548768638e-12</v>
+        <v>2.2184207106777763e-14</v>
       </c>
       <c r="D3">
-        <v>1.000084548768638e-12</v>
+        <v>0.00029702091014782158</v>
       </c>
       <c r="E3">
-        <v>0.49515554801975592</v>
+        <v>2.2184207106777763e-14</v>
       </c>
       <c r="F3">
-        <v>0.50484445197624372</v>
+        <v>0.93753940442597272</v>
       </c>
       <c r="G3">
-        <v>1.0000845487686382e-12</v>
+        <v>2.2184207106777763e-14</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -400,25 +400,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.5655533183979264e-14</v>
+        <v>0.2676659684085429</v>
       </c>
       <c r="C4">
-        <v>8.5655533183979264e-14</v>
+        <v>1.3696584373418345e-13</v>
       </c>
       <c r="D4">
-        <v>0.44797113407332023</v>
+        <v>0.313992220977861</v>
       </c>
       <c r="E4">
-        <v>0.26976296010142536</v>
+        <v>1.3696584373418337e-13</v>
       </c>
       <c r="F4">
-        <v>0.28226590582499761</v>
+        <v>0.41834181061318526</v>
       </c>
       <c r="G4">
-        <v>8.5655533183979391e-14</v>
+        <v>1.3696584373418337e-13</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -426,22 +426,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.000084548768638e-12</v>
+        <v>0.37552873524387353</v>
       </c>
       <c r="C5">
-        <v>1.000084548768638e-12</v>
+        <v>3.3131333400619617e-12</v>
       </c>
       <c r="D5">
-        <v>1.000084548768638e-12</v>
+        <v>0.15220677876745869</v>
       </c>
       <c r="E5">
-        <v>0.49515554801975592</v>
+        <v>3.3131333400619621e-12</v>
       </c>
       <c r="F5">
-        <v>0.50484445197624372</v>
+        <v>0.47226448597872844</v>
       </c>
       <c r="G5">
-        <v>1.0000845487686382e-12</v>
+        <v>3.3131333400619593e-12</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -452,22 +452,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.042197927641217201</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.2185466185255982e-14</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0013570970744708729</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.2185466185255982e-14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.95644497528424532</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.2185466185255982e-14</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -478,22 +478,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.000084548768638e-12</v>
+        <v>0.056748424405343709</v>
       </c>
       <c r="C7">
-        <v>1.000084548768638e-12</v>
+        <v>2.2186221822671225e-14</v>
       </c>
       <c r="D7">
-        <v>1.000084548768638e-12</v>
+        <v>0.00023597809991980992</v>
       </c>
       <c r="E7">
-        <v>0.49515554801975592</v>
+        <v>2.2186221822671225e-14</v>
       </c>
       <c r="F7">
-        <v>0.50484445197624372</v>
+        <v>0.94301559749466979</v>
       </c>
       <c r="G7">
-        <v>1.0000845487686382e-12</v>
+        <v>2.2186221822671225e-14</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -504,22 +504,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.14782942550891928</v>
+        <v>0.41991253568497322</v>
       </c>
       <c r="C8">
-        <v>0.14782942550891928</v>
+        <v>1.9183430274013007e-12</v>
       </c>
       <c r="D8">
-        <v>0.14782942550891928</v>
+        <v>0.11558356668980126</v>
       </c>
       <c r="E8">
-        <v>0.14782942550891937</v>
+        <v>1.9183430274013007e-12</v>
       </c>
       <c r="F8">
-        <v>0.26085287245540301</v>
+        <v>0.46450389761947058</v>
       </c>
       <c r="G8">
-        <v>0.14782942550891978</v>
+        <v>1.9183430274013007e-12</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -530,22 +530,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.14782942550891928</v>
+        <v>0.4190050126762962</v>
       </c>
       <c r="C9">
-        <v>0.14782942550891928</v>
+        <v>1.4466748214255053e-12</v>
       </c>
       <c r="D9">
-        <v>0.14782942550891928</v>
+        <v>0.11557075532395623</v>
       </c>
       <c r="E9">
-        <v>0.14782942550891937</v>
+        <v>1.4466748214255063e-12</v>
       </c>
       <c r="F9">
-        <v>0.26085287245540301</v>
+        <v>0.46542423199540756</v>
       </c>
       <c r="G9">
-        <v>0.14782942550891978</v>
+        <v>1.4466748214255081e-12</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -556,22 +556,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.2199473884507251e-14</v>
+        <v>0.046341838802087428</v>
       </c>
       <c r="C10">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2189146243172723e-14</v>
       </c>
       <c r="D10">
-        <v>2.2199473884507251e-14</v>
+        <v>0.0001812978038285381</v>
       </c>
       <c r="E10">
-        <v>0.060566780424307382</v>
+        <v>2.2189146243172723e-14</v>
       </c>
       <c r="F10">
-        <v>0.93943321957560377</v>
+        <v>0.9534768633940176</v>
       </c>
       <c r="G10">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2189146243172723e-14</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -582,22 +582,22 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2199473884507251e-14</v>
+        <v>0.031786353513798389</v>
       </c>
       <c r="C11">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2189926175388839e-14</v>
       </c>
       <c r="D11">
-        <v>2.2199473884507251e-14</v>
+        <v>0.0020366915461820572</v>
       </c>
       <c r="E11">
-        <v>0.060566780424307382</v>
+        <v>2.2189926175388839e-14</v>
       </c>
       <c r="F11">
-        <v>0.93943321957560377</v>
+        <v>0.96617695493995293</v>
       </c>
       <c r="G11">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2189926175388839e-14</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -608,22 +608,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.14782942550891928</v>
+        <v>0.42059599585270574</v>
       </c>
       <c r="C12">
-        <v>0.14782942550891928</v>
+        <v>2.2411619008081797e-12</v>
       </c>
       <c r="D12">
-        <v>0.14782942550891928</v>
+        <v>0.11414386104129624</v>
       </c>
       <c r="E12">
-        <v>0.14782942550891937</v>
+        <v>2.2411619008081789e-12</v>
       </c>
       <c r="F12">
-        <v>0.26085287245540301</v>
+        <v>0.46526014309927438</v>
       </c>
       <c r="G12">
-        <v>0.14782942550891978</v>
+        <v>2.2411619008081801e-12</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -634,22 +634,22 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.050336655093499882</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.2185265721880318e-14</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.00040339608844935145</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.2185265721880318e-14</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.94925994881798414</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.2185265721880318e-14</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -660,22 +660,22 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.000084548768638e-12</v>
+        <v>0.41083192849636996</v>
       </c>
       <c r="C14">
-        <v>1.000084548768638e-12</v>
+        <v>2.4309365631018504e-12</v>
       </c>
       <c r="D14">
-        <v>1.000084548768638e-12</v>
+        <v>0.12220125048130011</v>
       </c>
       <c r="E14">
-        <v>0.49515554801975592</v>
+        <v>2.4309365631018512e-12</v>
       </c>
       <c r="F14">
-        <v>0.50484445197624372</v>
+        <v>0.46696682101503728</v>
       </c>
       <c r="G14">
-        <v>1.0000845487686382e-12</v>
+        <v>2.4309365631018532e-12</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -686,22 +686,22 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.2199473884507251e-14</v>
+        <v>0.034388254312938009</v>
       </c>
       <c r="C15">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2190539636661539e-14</v>
       </c>
       <c r="D15">
-        <v>2.2199473884507251e-14</v>
+        <v>0.00025268416116057104</v>
       </c>
       <c r="E15">
-        <v>0.060566780424307382</v>
+        <v>2.2190539636661539e-14</v>
       </c>
       <c r="F15">
-        <v>0.93943321957560377</v>
+        <v>0.96535906152583484</v>
       </c>
       <c r="G15">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2190539636661539e-14</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -712,22 +712,22 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.000084548768638e-12</v>
+        <v>0.39316433103411597</v>
       </c>
       <c r="C16">
-        <v>1.000084548768638e-12</v>
+        <v>1.6974220784049174e-12</v>
       </c>
       <c r="D16">
-        <v>1.000084548768638e-12</v>
+        <v>0.13977745206195882</v>
       </c>
       <c r="E16">
-        <v>0.49515554801975592</v>
+        <v>1.6974220784049174e-12</v>
       </c>
       <c r="F16">
-        <v>0.50484445197624372</v>
+        <v>0.46705821689883303</v>
       </c>
       <c r="G16">
-        <v>1.0000845487686382e-12</v>
+        <v>1.6974220784049188e-12</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -738,25 +738,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.1840510314924594e-12</v>
+        <v>0.2760543808272945</v>
       </c>
       <c r="C17">
-        <v>2.1840510314924594e-12</v>
+        <v>1.2290240147131057e-13</v>
       </c>
       <c r="D17">
-        <v>0.57320740744852638</v>
+        <v>0.31833158462702282</v>
       </c>
       <c r="E17">
-        <v>0.42679259254273727</v>
+        <v>1.2290240147131057e-13</v>
       </c>
       <c r="F17">
-        <v>2.184051031492457e-12</v>
+        <v>0.40561403454531403</v>
       </c>
       <c r="G17">
-        <v>2.1840510314924554e-12</v>
+        <v>1.2290240147131049e-13</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -764,22 +764,22 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.14782942550891928</v>
+        <v>0.39612803101351463</v>
       </c>
       <c r="C18">
-        <v>0.14782942550891928</v>
+        <v>1.4532366087334917e-12</v>
       </c>
       <c r="D18">
-        <v>0.14782942550891928</v>
+        <v>0.13555301569888903</v>
       </c>
       <c r="E18">
-        <v>0.14782942550891937</v>
+        <v>1.4532366087334919e-12</v>
       </c>
       <c r="F18">
-        <v>0.26085287245540301</v>
+        <v>0.46831895328323658</v>
       </c>
       <c r="G18">
-        <v>0.14782942550891978</v>
+        <v>1.4532366087334931e-12</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -790,22 +790,22 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.2199473884507251e-14</v>
+        <v>0.053020743171892842</v>
       </c>
       <c r="C19">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2185971100180789e-14</v>
       </c>
       <c r="D19">
-        <v>2.2199473884507251e-14</v>
+        <v>0.00030931012521719618</v>
       </c>
       <c r="E19">
-        <v>0.060566780424307382</v>
+        <v>2.2185971100180789e-14</v>
       </c>
       <c r="F19">
-        <v>0.93943321957560377</v>
+        <v>0.94666994670282345</v>
       </c>
       <c r="G19">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2185971100180789e-14</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -816,22 +816,22 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.045113606764839796</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.2185764534390019e-14</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.00058580725705955857</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.2185764534390019e-14</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.95430058597803413</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.2185764534390019e-14</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -842,22 +842,22 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.2199473884507251e-14</v>
+        <v>0.046149155506422616</v>
       </c>
       <c r="C21">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2185894483922487e-14</v>
       </c>
       <c r="D21">
-        <v>2.2199473884507251e-14</v>
+        <v>0.0005228810012994961</v>
       </c>
       <c r="E21">
-        <v>0.060566780424307382</v>
+        <v>2.2185894483922487e-14</v>
       </c>
       <c r="F21">
-        <v>0.93943321957560377</v>
+        <v>0.95332796349221127</v>
       </c>
       <c r="G21">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2185894483922487e-14</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -868,22 +868,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.2199473884507251e-14</v>
+        <v>0.040432805088943237</v>
       </c>
       <c r="C22">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2187131841535256e-14</v>
       </c>
       <c r="D22">
-        <v>2.2199473884507251e-14</v>
+        <v>0.00049601546811413419</v>
       </c>
       <c r="E22">
-        <v>0.060566780424307382</v>
+        <v>2.2187131841535256e-14</v>
       </c>
       <c r="F22">
-        <v>0.93943321957560377</v>
+        <v>0.95907117944287601</v>
       </c>
       <c r="G22">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2187131841535256e-14</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -894,22 +894,22 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.14782942550891928</v>
+        <v>0.066942099994412668</v>
       </c>
       <c r="C23">
-        <v>0.14782942550891928</v>
+        <v>2.2182975120111397e-14</v>
       </c>
       <c r="D23">
-        <v>0.14782942550891928</v>
+        <v>0.00031439025772241443</v>
       </c>
       <c r="E23">
-        <v>0.14782942550891937</v>
+        <v>2.2182975120111397e-14</v>
       </c>
       <c r="F23">
-        <v>0.26085287245540301</v>
+        <v>0.93274350974779829</v>
       </c>
       <c r="G23">
-        <v>0.14782942550891978</v>
+        <v>2.2182975120111397e-14</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -920,22 +920,22 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.14782942550891928</v>
+        <v>0.064575432582601733</v>
       </c>
       <c r="C24">
-        <v>0.14782942550891928</v>
+        <v>2.2180708770777722e-14</v>
       </c>
       <c r="D24">
-        <v>0.14782942550891928</v>
+        <v>0.00084634598133826204</v>
       </c>
       <c r="E24">
-        <v>0.14782942550891937</v>
+        <v>2.2180708770777722e-14</v>
       </c>
       <c r="F24">
-        <v>0.26085287245540301</v>
+        <v>0.93457822143599345</v>
       </c>
       <c r="G24">
-        <v>0.14782942550891978</v>
+        <v>2.2180708770777722e-14</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -946,22 +946,22 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.14782942550891928</v>
+        <v>0.38679471965904838</v>
       </c>
       <c r="C25">
-        <v>0.14782942550891928</v>
+        <v>7.5415353570896828e-13</v>
       </c>
       <c r="D25">
-        <v>0.14782942550891928</v>
+        <v>0.15048288354466482</v>
       </c>
       <c r="E25">
-        <v>0.14782942550891937</v>
+        <v>7.5415353570896888e-13</v>
       </c>
       <c r="F25">
-        <v>0.26085287245540301</v>
+        <v>0.46272239679402438</v>
       </c>
       <c r="G25">
-        <v>0.14782942550891978</v>
+        <v>7.5415353570896868e-13</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -972,22 +972,22 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.000084548768638e-12</v>
+        <v>0.40472876220530835</v>
       </c>
       <c r="C26">
-        <v>1.000084548768638e-12</v>
+        <v>2.1433661885124378e-12</v>
       </c>
       <c r="D26">
-        <v>1.000084548768638e-12</v>
+        <v>0.12897951065762939</v>
       </c>
       <c r="E26">
-        <v>0.49515554801975592</v>
+        <v>2.1433661885124378e-12</v>
       </c>
       <c r="F26">
-        <v>0.50484445197624372</v>
+        <v>0.46629172713063216</v>
       </c>
       <c r="G26">
-        <v>1.0000845487686382e-12</v>
+        <v>2.1433661885124382e-12</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -998,22 +998,22 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.7543054185345075e-12</v>
+        <v>0.090125506215441228</v>
       </c>
       <c r="C27">
-        <v>1.7543054185345075e-12</v>
+        <v>8.4049566179319666e-14</v>
       </c>
       <c r="D27">
-        <v>0.5689858367030578</v>
+        <v>0.55000507590030889</v>
       </c>
       <c r="E27">
-        <v>1.7543054185345146e-12</v>
+        <v>8.4049566179319666e-14</v>
       </c>
       <c r="F27">
-        <v>0.43101416328992503</v>
+        <v>0.35986941788399784</v>
       </c>
       <c r="G27">
-        <v>1.7543054185345156e-12</v>
+        <v>8.4049566179319691e-14</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -1024,22 +1024,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.14782942550891928</v>
+        <v>0.41891174492188171</v>
       </c>
       <c r="C28">
-        <v>0.14782942550891928</v>
+        <v>4.5527837279041512e-13</v>
       </c>
       <c r="D28">
-        <v>0.14782942550891928</v>
+        <v>0.12634876297086786</v>
       </c>
       <c r="E28">
-        <v>0.14782942550891937</v>
+        <v>4.5527837279041512e-13</v>
       </c>
       <c r="F28">
-        <v>0.26085287245540301</v>
+        <v>0.45473949210588466</v>
       </c>
       <c r="G28">
-        <v>0.14782942550891978</v>
+        <v>4.5527837279041563e-13</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -1050,22 +1050,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.000084548768638e-12</v>
+        <v>0.42767741982839846</v>
       </c>
       <c r="C29">
-        <v>1.000084548768638e-12</v>
+        <v>1.1637079618044503e-12</v>
       </c>
       <c r="D29">
-        <v>1.000084548768638e-12</v>
+        <v>0.1090427883856287</v>
       </c>
       <c r="E29">
-        <v>0.49515554801975592</v>
+        <v>1.1637079618044501e-12</v>
       </c>
       <c r="F29">
-        <v>0.50484445197624372</v>
+        <v>0.46327979178248174</v>
       </c>
       <c r="G29">
-        <v>1.0000845487686382e-12</v>
+        <v>1.1637079618044515e-12</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -1076,22 +1076,22 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.16666666666666669</v>
+        <v>0.46477126758629905</v>
       </c>
       <c r="C30">
-        <v>0.16666666666666669</v>
+        <v>2.6031482196647241e-13</v>
       </c>
       <c r="D30">
-        <v>0.16666666666666669</v>
+        <v>0.098378968945950954</v>
       </c>
       <c r="E30">
-        <v>0.16666666666666663</v>
+        <v>2.6031482196647256e-13</v>
       </c>
       <c r="F30">
-        <v>0.16666666666666663</v>
+        <v>0.43684976346696902</v>
       </c>
       <c r="G30">
-        <v>0.16666666666666669</v>
+        <v>2.6031482196647256e-13</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1102,22 +1102,22 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.000084548768638e-12</v>
+        <v>0.36040547187615807</v>
       </c>
       <c r="C31">
-        <v>1.000084548768638e-12</v>
+        <v>6.5663412427413049e-13</v>
       </c>
       <c r="D31">
-        <v>1.000084548768638e-12</v>
+        <v>0.17023733347780529</v>
       </c>
       <c r="E31">
-        <v>0.49515554801975592</v>
+        <v>6.5663412427413039e-13</v>
       </c>
       <c r="F31">
-        <v>0.50484445197624372</v>
+        <v>0.46935719464406672</v>
       </c>
       <c r="G31">
-        <v>1.0000845487686382e-12</v>
+        <v>6.566341242741311e-13</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -1128,22 +1128,22 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.2199473884507251e-14</v>
+        <v>0.034782363918710604</v>
       </c>
       <c r="C32">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2189322454795459e-14</v>
       </c>
       <c r="D32">
-        <v>2.2199473884507251e-14</v>
+        <v>0.0025359375772196959</v>
       </c>
       <c r="E32">
-        <v>0.060566780424307382</v>
+        <v>2.2189322454795459e-14</v>
       </c>
       <c r="F32">
-        <v>0.93943321957560377</v>
+        <v>0.96268169850400309</v>
       </c>
       <c r="G32">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2189322454795459e-14</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -1154,22 +1154,22 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.000084548768638e-12</v>
+        <v>0.054484012052802976</v>
       </c>
       <c r="C33">
-        <v>1.000084548768638e-12</v>
+        <v>2.2184843276591937e-14</v>
       </c>
       <c r="D33">
-        <v>1.000084548768638e-12</v>
+        <v>0.00042163796389685002</v>
       </c>
       <c r="E33">
-        <v>0.49515554801975592</v>
+        <v>2.2184843276591937e-14</v>
       </c>
       <c r="F33">
-        <v>0.50484445197624372</v>
+        <v>0.94509434998323361</v>
       </c>
       <c r="G33">
-        <v>1.0000845487686382e-12</v>
+        <v>2.2184843276591937e-14</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -1180,22 +1180,22 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.14782942550891928</v>
+        <v>0.42878465675252569</v>
       </c>
       <c r="C34">
-        <v>0.14782942550891928</v>
+        <v>1.116934114145146e-12</v>
       </c>
       <c r="D34">
-        <v>0.14782942550891928</v>
+        <v>0.11090759934055019</v>
       </c>
       <c r="E34">
-        <v>0.14782942550891937</v>
+        <v>1.1169341141451466e-12</v>
       </c>
       <c r="F34">
-        <v>0.26085287245540301</v>
+        <v>0.46030774390357326</v>
       </c>
       <c r="G34">
-        <v>0.14782942550891978</v>
+        <v>1.116934114145147e-12</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -1206,22 +1206,22 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.000084548768638e-12</v>
+        <v>0.38123133512530472</v>
       </c>
       <c r="C35">
-        <v>1.000084548768638e-12</v>
+        <v>1.4022214934664387e-12</v>
       </c>
       <c r="D35">
-        <v>1.000084548768638e-12</v>
+        <v>0.14733607494155887</v>
       </c>
       <c r="E35">
-        <v>0.49515554801975592</v>
+        <v>1.4022214934664387e-12</v>
       </c>
       <c r="F35">
-        <v>0.50484445197624372</v>
+        <v>0.47143258992892995</v>
       </c>
       <c r="G35">
-        <v>1.0000845487686382e-12</v>
+        <v>1.4022214934664377e-12</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -1232,22 +1232,22 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.14782942550891928</v>
+        <v>0.068386021940712513</v>
       </c>
       <c r="C36">
-        <v>0.14782942550891928</v>
+        <v>2.2181520869238433e-14</v>
       </c>
       <c r="D36">
-        <v>0.14782942550891928</v>
+        <v>0.00038832899637057899</v>
       </c>
       <c r="E36">
-        <v>0.14782942550891937</v>
+        <v>2.2181520869238433e-14</v>
       </c>
       <c r="F36">
-        <v>0.26085287245540301</v>
+        <v>0.93122564906285044</v>
       </c>
       <c r="G36">
-        <v>0.14782942550891978</v>
+        <v>2.2181520869238433e-14</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -1258,22 +1258,22 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2.2199473884507251e-14</v>
+        <v>0.040347918152165103</v>
       </c>
       <c r="C37">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2187816877605454e-14</v>
       </c>
       <c r="D37">
-        <v>2.2199473884507251e-14</v>
+        <v>0.00040422271491070429</v>
       </c>
       <c r="E37">
-        <v>0.060566780424307382</v>
+        <v>2.2187816877605454e-14</v>
       </c>
       <c r="F37">
-        <v>0.93943321957560377</v>
+        <v>0.95924785913285771</v>
       </c>
       <c r="G37">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2187816877605454e-14</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -1284,22 +1284,22 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.14782942550891928</v>
+        <v>0.38552690766633102</v>
       </c>
       <c r="C38">
-        <v>0.14782942550891928</v>
+        <v>1.5400371372595355e-12</v>
       </c>
       <c r="D38">
-        <v>0.14782942550891928</v>
+        <v>0.14611253799344173</v>
       </c>
       <c r="E38">
-        <v>0.14782942550891937</v>
+        <v>1.5400371372595351e-12</v>
       </c>
       <c r="F38">
-        <v>0.26085287245540301</v>
+        <v>0.46836055433560714</v>
       </c>
       <c r="G38">
-        <v>0.14782942550891978</v>
+        <v>1.5400371372595341e-12</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -1310,22 +1310,22 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.14782942550891928</v>
+        <v>0.42547679180843662</v>
       </c>
       <c r="C39">
-        <v>0.14782942550891928</v>
+        <v>1.1850889386773845e-12</v>
       </c>
       <c r="D39">
-        <v>0.14782942550891928</v>
+        <v>0.11060486588587688</v>
       </c>
       <c r="E39">
-        <v>0.14782942550891937</v>
+        <v>1.1850889386773839e-12</v>
       </c>
       <c r="F39">
-        <v>0.26085287245540301</v>
+        <v>0.46391834230213108</v>
       </c>
       <c r="G39">
-        <v>0.14782942550891978</v>
+        <v>1.1850889386773843e-12</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -1336,22 +1336,22 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.14782942550891928</v>
+        <v>0.43358888312098992</v>
       </c>
       <c r="C40">
-        <v>0.14782942550891928</v>
+        <v>1.3050766396324514e-12</v>
       </c>
       <c r="D40">
-        <v>0.14782942550891928</v>
+        <v>0.10337605834483603</v>
       </c>
       <c r="E40">
-        <v>0.14782942550891937</v>
+        <v>1.30507663963245e-12</v>
       </c>
       <c r="F40">
-        <v>0.26085287245540301</v>
+        <v>0.46303505853025884</v>
       </c>
       <c r="G40">
-        <v>0.14782942550891978</v>
+        <v>1.305076639632449e-12</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -1362,22 +1362,22 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.12699537883085271</v>
+        <v>0.2526422462325783</v>
       </c>
       <c r="C41">
-        <v>0.12699537883085271</v>
+        <v>4.262196174421772e-14</v>
       </c>
       <c r="D41">
-        <v>0.36502310584573661</v>
+        <v>0.74735775376725111</v>
       </c>
       <c r="E41">
-        <v>0.12699537883085263</v>
+        <v>4.2621961744217707e-14</v>
       </c>
       <c r="F41">
-        <v>0.12699537883085263</v>
+        <v>4.2621961744217707e-14</v>
       </c>
       <c r="G41">
-        <v>0.12699537883085263</v>
+        <v>4.2621961744217714e-14</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -1388,22 +1388,22 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.000084548768638e-12</v>
+        <v>0.43300397764766702</v>
       </c>
       <c r="C42">
-        <v>1.000084548768638e-12</v>
+        <v>2.0444549645508189e-12</v>
       </c>
       <c r="D42">
-        <v>1.000084548768638e-12</v>
+        <v>0.10330030112103417</v>
       </c>
       <c r="E42">
-        <v>0.49515554801975592</v>
+        <v>2.0444549645508177e-12</v>
       </c>
       <c r="F42">
-        <v>0.50484445197624372</v>
+        <v>0.46369572122516545</v>
       </c>
       <c r="G42">
-        <v>1.0000845487686382e-12</v>
+        <v>2.0444549645508213e-12</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -1414,25 +1414,25 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.7543054185345075e-12</v>
+        <v>0.20526268535342823</v>
       </c>
       <c r="C43">
-        <v>1.7543054185345075e-12</v>
+        <v>2.2593309915074792e-13</v>
       </c>
       <c r="D43">
-        <v>0.5689858367030578</v>
+        <v>0.35010014218434504</v>
       </c>
       <c r="E43">
-        <v>1.7543054185345146e-12</v>
+        <v>2.2593309915074787e-13</v>
       </c>
       <c r="F43">
-        <v>0.43101416328992503</v>
+        <v>0.44463717246154894</v>
       </c>
       <c r="G43">
-        <v>1.7543054185345156e-12</v>
+        <v>2.2593309915074792e-13</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1440,22 +1440,22 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.000084548768638e-12</v>
+        <v>0.25876034349235244</v>
       </c>
       <c r="C44">
-        <v>1.000084548768638e-12</v>
+        <v>8.5316742806524728e-14</v>
       </c>
       <c r="D44">
-        <v>1.000084548768638e-12</v>
+        <v>0.012468070339045869</v>
       </c>
       <c r="E44">
-        <v>0.49515554801975592</v>
+        <v>0.35646196798477975</v>
       </c>
       <c r="F44">
-        <v>0.50484445197624372</v>
+        <v>0.37230961818365127</v>
       </c>
       <c r="G44">
-        <v>1.0000845487686382e-12</v>
+        <v>8.5316742806524677e-14</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -1466,22 +1466,22 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.12699537883085271</v>
+        <v>0.40592683402219054</v>
       </c>
       <c r="C45">
-        <v>0.12699537883085271</v>
+        <v>3.7374886973649502e-13</v>
       </c>
       <c r="D45">
-        <v>0.36502310584573661</v>
+        <v>0.59407316597631443</v>
       </c>
       <c r="E45">
-        <v>0.12699537883085263</v>
+        <v>3.7374886973649497e-13</v>
       </c>
       <c r="F45">
-        <v>0.12699537883085263</v>
+        <v>3.7374886973649497e-13</v>
       </c>
       <c r="G45">
-        <v>0.12699537883085263</v>
+        <v>3.7374886973649497e-13</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -1492,22 +1492,22 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.04827809833588622</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2.2199267858708898e-14</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.95172190166402493</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2.2199267858708898e-14</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2.2199267858708898e-14</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>2.2199267858708898e-14</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -1518,22 +1518,22 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.12699537883085271</v>
+        <v>0.26575670859077044</v>
       </c>
       <c r="C47">
-        <v>0.12699537883085271</v>
+        <v>5.5062534596727286e-13</v>
       </c>
       <c r="D47">
-        <v>0.36502310584573661</v>
+        <v>0.73424329140702715</v>
       </c>
       <c r="E47">
-        <v>0.12699537883085263</v>
+        <v>5.5062534596727297e-13</v>
       </c>
       <c r="F47">
-        <v>0.12699537883085263</v>
+        <v>5.5062534596727297e-13</v>
       </c>
       <c r="G47">
-        <v>0.12699537883085263</v>
+        <v>5.5062534596727216e-13</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -1544,25 +1544,25 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.14910599218278173</v>
+        <v>0.44708520035964172</v>
       </c>
       <c r="C48">
-        <v>0.14910599218278173</v>
+        <v>3.757155788424655e-13</v>
       </c>
       <c r="D48">
-        <v>0.14910599218278173</v>
+        <v>0.10920077673431401</v>
       </c>
       <c r="E48">
-        <v>0.254470039086092</v>
+        <v>3.7571557884246529e-13</v>
       </c>
       <c r="F48">
-        <v>0.14910599218278134</v>
+        <v>0.44371402290491729</v>
       </c>
       <c r="G48">
-        <v>0.14910599218278134</v>
+        <v>3.7571557884246539e-13</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1570,22 +1570,22 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.000084548768638e-12</v>
+        <v>0.45378184974424818</v>
       </c>
       <c r="C49">
-        <v>1.000084548768638e-12</v>
+        <v>7.0315499504907629e-13</v>
       </c>
       <c r="D49">
-        <v>1.000084548768638e-12</v>
+        <v>0.092401609438737237</v>
       </c>
       <c r="E49">
-        <v>0.49515554801975592</v>
+        <v>7.0315499504907649e-13</v>
       </c>
       <c r="F49">
-        <v>0.50484445197624372</v>
+        <v>0.45381654081490513</v>
       </c>
       <c r="G49">
-        <v>1.0000845487686382e-12</v>
+        <v>7.0315499504907619e-13</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -1596,22 +1596,22 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.14782942550891928</v>
+        <v>0.3791083508935118</v>
       </c>
       <c r="C50">
-        <v>0.14782942550891928</v>
+        <v>5.6890072108488726e-13</v>
       </c>
       <c r="D50">
-        <v>0.14782942550891928</v>
+        <v>0.15767166966199553</v>
       </c>
       <c r="E50">
-        <v>0.14782942550891937</v>
+        <v>5.6890072108488726e-13</v>
       </c>
       <c r="F50">
-        <v>0.26085287245540301</v>
+        <v>0.46321997944278603</v>
       </c>
       <c r="G50">
-        <v>0.14782942550891978</v>
+        <v>5.6890072108488726e-13</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -1622,22 +1622,22 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.000084548768638e-12</v>
+        <v>0.058771434637418782</v>
       </c>
       <c r="C51">
-        <v>1.000084548768638e-12</v>
+        <v>2.2184726914187308e-14</v>
       </c>
       <c r="D51">
-        <v>1.000084548768638e-12</v>
+        <v>0.00029772327036125444</v>
       </c>
       <c r="E51">
-        <v>0.49515554801975592</v>
+        <v>2.2184726914187308e-14</v>
       </c>
       <c r="F51">
-        <v>0.50484445197624372</v>
+        <v>0.94093084209215339</v>
       </c>
       <c r="G51">
-        <v>1.0000845487686382e-12</v>
+        <v>2.2184726914187308e-14</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -1648,22 +1648,22 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.14782942550891928</v>
+        <v>0.36763492228707328</v>
       </c>
       <c r="C52">
-        <v>0.14782942550891928</v>
+        <v>3.2495849459895186e-13</v>
       </c>
       <c r="D52">
-        <v>0.14782942550891928</v>
+        <v>0.17950961752167613</v>
       </c>
       <c r="E52">
-        <v>0.14782942550891937</v>
+        <v>3.2495849459895186e-13</v>
       </c>
       <c r="F52">
-        <v>0.26085287245540301</v>
+        <v>0.45285546019027562</v>
       </c>
       <c r="G52">
-        <v>0.14782942550891978</v>
+        <v>3.2495849459895166e-13</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -1674,22 +1674,22 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2.2199473884507251e-14</v>
+        <v>0.035142535435999205</v>
       </c>
       <c r="C53">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2188791750804745e-14</v>
       </c>
       <c r="D53">
-        <v>2.2199473884507251e-14</v>
+        <v>0.00065363820939177367</v>
       </c>
       <c r="E53">
-        <v>0.060566780424307382</v>
+        <v>2.2188791750804745e-14</v>
       </c>
       <c r="F53">
-        <v>0.93943321957560377</v>
+        <v>0.96420382635454238</v>
       </c>
       <c r="G53">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2188791750804745e-14</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -1700,22 +1700,22 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.000084548768638e-12</v>
+        <v>0.40400474485874149</v>
       </c>
       <c r="C54">
-        <v>1.000084548768638e-12</v>
+        <v>9.9756335908143112e-13</v>
       </c>
       <c r="D54">
-        <v>1.000084548768638e-12</v>
+        <v>0.12978730500430369</v>
       </c>
       <c r="E54">
-        <v>0.49515554801975592</v>
+        <v>9.9756335908143011e-13</v>
       </c>
       <c r="F54">
-        <v>0.50484445197624372</v>
+        <v>0.46620795013396227</v>
       </c>
       <c r="G54">
-        <v>1.0000845487686382e-12</v>
+        <v>9.9756335908143112e-13</v>
       </c>
       <c r="H54">
         <v>5</v>
@@ -1726,25 +1726,25 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.14782942550891928</v>
+        <v>0.49706856808898631</v>
       </c>
       <c r="C55">
-        <v>0.14782942550891928</v>
+        <v>4.8769300991225233e-13</v>
       </c>
       <c r="D55">
-        <v>0.14782942550891928</v>
+        <v>0.05698935722285986</v>
       </c>
       <c r="E55">
-        <v>0.14782942550891937</v>
+        <v>4.8769300991225243e-13</v>
       </c>
       <c r="F55">
-        <v>0.26085287245540301</v>
+        <v>0.44594207468669073</v>
       </c>
       <c r="G55">
-        <v>0.14782942550891978</v>
+        <v>4.8769300991225253e-13</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1752,22 +1752,22 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1.000084548768638e-12</v>
+        <v>0.23997717706851923</v>
       </c>
       <c r="C56">
-        <v>1.000084548768638e-12</v>
+        <v>8.3924519618973257e-14</v>
       </c>
       <c r="D56">
-        <v>1.000084548768638e-12</v>
+        <v>0.04036873189187009</v>
       </c>
       <c r="E56">
-        <v>0.49515554801975592</v>
+        <v>0.35197789327338713</v>
       </c>
       <c r="F56">
-        <v>0.50484445197624372</v>
+        <v>0.36767619776605592</v>
       </c>
       <c r="G56">
-        <v>1.0000845487686382e-12</v>
+        <v>8.3924519618973371e-14</v>
       </c>
       <c r="H56">
         <v>5</v>
@@ -1778,22 +1778,22 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.025680156895712482</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>2.2193435950905751e-14</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.0026148055868154409</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2.2193435950905751e-14</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.97170503751740545</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>2.2193435950905751e-14</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -1804,22 +1804,22 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.38043981650330627</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1.3612010375779512e-12</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.15055537129144869</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1.361201037577952e-12</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.46900481220116141</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1.3612010375779512e-12</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -1830,22 +1830,22 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2.2199473884507251e-14</v>
+        <v>0.033133718550366766</v>
       </c>
       <c r="C59">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2189065290039062e-14</v>
       </c>
       <c r="D59">
-        <v>2.2199473884507251e-14</v>
+        <v>0.00062939630071560937</v>
       </c>
       <c r="E59">
-        <v>0.060566780424307382</v>
+        <v>2.2189065290039062e-14</v>
       </c>
       <c r="F59">
-        <v>0.93943321957560377</v>
+        <v>0.96623688514885109</v>
       </c>
       <c r="G59">
-        <v>2.2199473884507251e-14</v>
+        <v>2.2189065290039062e-14</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -1856,22 +1856,22 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.14782942550891928</v>
+        <v>0.391118562174183</v>
       </c>
       <c r="C60">
-        <v>0.14782942550891928</v>
+        <v>8.7002623190128308e-13</v>
       </c>
       <c r="D60">
-        <v>0.14782942550891928</v>
+        <v>0.14580901340218533</v>
       </c>
       <c r="E60">
-        <v>0.14782942550891937</v>
+        <v>8.7002623190127955e-13</v>
       </c>
       <c r="F60">
-        <v>0.26085287245540301</v>
+        <v>0.46307242442102159</v>
       </c>
       <c r="G60">
-        <v>0.14782942550891978</v>
+        <v>8.7002623190127915e-13</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -1882,22 +1882,22 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.14782942550891928</v>
+        <v>0.42685380966642522</v>
       </c>
       <c r="C61">
-        <v>0.14782942550891928</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="D61">
-        <v>0.14782942550891928</v>
+        <v>0.11120772244183989</v>
       </c>
       <c r="E61">
-        <v>0.14782942550891937</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="F61">
-        <v>0.26085287245540301</v>
+        <v>0.46193846788916249</v>
       </c>
       <c r="G61">
-        <v>0.14782942550891978</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="H61">
         <v>5</v>
@@ -1908,22 +1908,22 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.14782942550891928</v>
+        <v>0.42685380966642522</v>
       </c>
       <c r="C62">
-        <v>0.14782942550891928</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="D62">
-        <v>0.14782942550891928</v>
+        <v>0.11120772244183989</v>
       </c>
       <c r="E62">
-        <v>0.14782942550891937</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="F62">
-        <v>0.26085287245540301</v>
+        <v>0.46193846788916249</v>
       </c>
       <c r="G62">
-        <v>0.14782942550891978</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -1934,22 +1934,22 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1.000084548768638e-12</v>
+        <v>0.41114020981499239</v>
       </c>
       <c r="C63">
-        <v>1.000084548768638e-12</v>
+        <v>9.3639756791126848e-13</v>
       </c>
       <c r="D63">
-        <v>1.000084548768638e-12</v>
+        <v>0.12520254833268424</v>
       </c>
       <c r="E63">
-        <v>0.49515554801975592</v>
+        <v>9.3639756791126788e-13</v>
       </c>
       <c r="F63">
-        <v>0.50484445197624372</v>
+        <v>0.46365724184951412</v>
       </c>
       <c r="G63">
-        <v>1.0000845487686382e-12</v>
+        <v>9.3639756791126788e-13</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -1960,22 +1960,22 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.14782942550891928</v>
+        <v>0.42685380966642522</v>
       </c>
       <c r="C64">
-        <v>0.14782942550891928</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="D64">
-        <v>0.14782942550891928</v>
+        <v>0.11120772244183989</v>
       </c>
       <c r="E64">
-        <v>0.14782942550891937</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="F64">
-        <v>0.26085287245540301</v>
+        <v>0.46193846788916249</v>
       </c>
       <c r="G64">
-        <v>0.14782942550891978</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -1986,22 +1986,22 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1.000084548768638e-12</v>
+        <v>0.41114020981499239</v>
       </c>
       <c r="C65">
-        <v>1.000084548768638e-12</v>
+        <v>9.3639756791126848e-13</v>
       </c>
       <c r="D65">
-        <v>1.000084548768638e-12</v>
+        <v>0.12520254833268424</v>
       </c>
       <c r="E65">
-        <v>0.49515554801975592</v>
+        <v>9.3639756791126788e-13</v>
       </c>
       <c r="F65">
-        <v>0.50484445197624372</v>
+        <v>0.46365724184951412</v>
       </c>
       <c r="G65">
-        <v>1.0000845487686382e-12</v>
+        <v>9.3639756791126788e-13</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -2012,22 +2012,22 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1.000084548768638e-12</v>
+        <v>0.019824568685447411</v>
       </c>
       <c r="C66">
-        <v>1.000084548768638e-12</v>
+        <v>2.221565900508929e-14</v>
       </c>
       <c r="D66">
-        <v>1.000084548768638e-12</v>
+        <v>0.019714874030856987</v>
       </c>
       <c r="E66">
-        <v>0.49515554801975592</v>
+        <v>2.221565900508929e-14</v>
       </c>
       <c r="F66">
-        <v>0.50484445197624372</v>
+        <v>0.96046055728362889</v>
       </c>
       <c r="G66">
-        <v>1.0000845487686382e-12</v>
+        <v>2.221565900508929e-14</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -2038,22 +2038,22 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.14782942550891928</v>
+        <v>0.065536745624008436</v>
       </c>
       <c r="C67">
-        <v>0.14782942550891928</v>
+        <v>2.2185112634860518e-14</v>
       </c>
       <c r="D67">
-        <v>0.14782942550891928</v>
+        <v>0.00021784340608453016</v>
       </c>
       <c r="E67">
-        <v>0.14782942550891937</v>
+        <v>2.2185112634860518e-14</v>
       </c>
       <c r="F67">
-        <v>0.26085287245540301</v>
+        <v>0.9342454109698406</v>
       </c>
       <c r="G67">
-        <v>0.14782942550891978</v>
+        <v>2.2185112634860518e-14</v>
       </c>
       <c r="H67">
         <v>5</v>
@@ -2064,22 +2064,22 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.14782942550891928</v>
+        <v>0.39646772482373366</v>
       </c>
       <c r="C68">
-        <v>0.14782942550891928</v>
+        <v>1.9880577696732059e-12</v>
       </c>
       <c r="D68">
-        <v>0.14782942550891928</v>
+        <v>0.13501080388279138</v>
       </c>
       <c r="E68">
-        <v>0.14782942550891937</v>
+        <v>1.9880577696732075e-12</v>
       </c>
       <c r="F68">
-        <v>0.26085287245540301</v>
+        <v>0.46852147128751082</v>
       </c>
       <c r="G68">
-        <v>0.14782942550891978</v>
+        <v>1.9880577696732075e-12</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -2090,22 +2090,22 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1.000084548768638e-12</v>
+        <v>0.3887780535071001</v>
       </c>
       <c r="C69">
-        <v>1.000084548768638e-12</v>
+        <v>1.5605313661382923e-12</v>
       </c>
       <c r="D69">
-        <v>1.000084548768638e-12</v>
+        <v>0.14062213667787463</v>
       </c>
       <c r="E69">
-        <v>0.49515554801975592</v>
+        <v>1.5605313661382933e-12</v>
       </c>
       <c r="F69">
-        <v>0.50484445197624372</v>
+        <v>0.47059980981034366</v>
       </c>
       <c r="G69">
-        <v>1.0000845487686382e-12</v>
+        <v>1.5605313661382921e-12</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -2116,22 +2116,22 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.14782942550891928</v>
+        <v>0.41519836555748102</v>
       </c>
       <c r="C70">
-        <v>0.14782942550891928</v>
+        <v>2.0801981901378589e-12</v>
       </c>
       <c r="D70">
-        <v>0.14782942550891928</v>
+        <v>0.11621521427998051</v>
       </c>
       <c r="E70">
-        <v>0.14782942550891937</v>
+        <v>2.0801981901378581e-12</v>
       </c>
       <c r="F70">
-        <v>0.26085287245540301</v>
+        <v>0.46858642015629803</v>
       </c>
       <c r="G70">
-        <v>0.14782942550891978</v>
+        <v>2.0801981901378605e-12</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -2142,22 +2142,22 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1.000084548768638e-12</v>
+        <v>0.38189846218280554</v>
       </c>
       <c r="C71">
-        <v>1.000084548768638e-12</v>
+        <v>6.3234707873331072e-13</v>
       </c>
       <c r="D71">
-        <v>1.000084548768638e-12</v>
+        <v>0.15841073390048765</v>
       </c>
       <c r="E71">
-        <v>0.49515554801975592</v>
+        <v>6.3234707873331082e-13</v>
       </c>
       <c r="F71">
-        <v>0.50484445197624372</v>
+        <v>0.45969080391480971</v>
       </c>
       <c r="G71">
-        <v>1.0000845487686382e-12</v>
+        <v>6.3234707873331062e-13</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -2168,22 +2168,22 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.000084548768638e-12</v>
+        <v>0.42536099300737817</v>
       </c>
       <c r="C72">
-        <v>1.000084548768638e-12</v>
+        <v>1.5501020501256882e-12</v>
       </c>
       <c r="D72">
-        <v>1.000084548768638e-12</v>
+        <v>0.11287750747001836</v>
       </c>
       <c r="E72">
-        <v>0.49515554801975592</v>
+        <v>1.5501020501256878e-12</v>
       </c>
       <c r="F72">
-        <v>0.50484445197624372</v>
+        <v>0.46176149951795337</v>
       </c>
       <c r="G72">
-        <v>1.0000845487686382e-12</v>
+        <v>1.5501020501256884e-12</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -2194,22 +2194,22 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.14782942550891928</v>
+        <v>0.41696908462897991</v>
       </c>
       <c r="C73">
-        <v>0.14782942550891928</v>
+        <v>1.6543869133396136e-12</v>
       </c>
       <c r="D73">
-        <v>0.14782942550891928</v>
+        <v>0.11963709809306276</v>
       </c>
       <c r="E73">
-        <v>0.14782942550891937</v>
+        <v>1.6543869133396126e-12</v>
       </c>
       <c r="F73">
-        <v>0.26085287245540301</v>
+        <v>0.46339381727299422</v>
       </c>
       <c r="G73">
-        <v>0.14782942550891978</v>
+        <v>1.6543869133396124e-12</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -2220,22 +2220,22 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1.000084548768638e-12</v>
+        <v>0.064121272186043826</v>
       </c>
       <c r="C74">
-        <v>1.000084548768638e-12</v>
+        <v>2.2183712329396404e-14</v>
       </c>
       <c r="D74">
-        <v>1.000084548768638e-12</v>
+        <v>0.0002794510588238811</v>
       </c>
       <c r="E74">
-        <v>0.49515554801975592</v>
+        <v>2.2183712329396404e-14</v>
       </c>
       <c r="F74">
-        <v>0.50484445197624372</v>
+        <v>0.93559927675506582</v>
       </c>
       <c r="G74">
-        <v>1.0000845487686382e-12</v>
+        <v>2.2183712329396404e-14</v>
       </c>
       <c r="H74">
         <v>5</v>
